--- a/muscle_length_determination/ligament_and_muscle_lengths_short_ligaments.xlsx
+++ b/muscle_length_determination/ligament_and_muscle_lengths_short_ligaments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Tokyo Tech\Project\Dog Robot\Hoshiramu_robot\muscle_length_determination\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4f506518823dc09/Tokyo Tech/Project/Dog Robot/Hoshiramu_robot/muscle_length_determination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{9279C57E-5F5A-4B6C-9BAB-94F8C0316C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C9673B9-5423-422B-9879-59C556B964F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{2315A355-BCBD-4DBC-AD63-E4BB9AFF63BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2" xr2:uid="{26156378-0049-4A8B-8CB0-3F3BBDC12CF9}"/>
   </bookViews>
@@ -22,12 +22,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="28">
   <si>
     <t>stf_L</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,10 +149,6 @@
   </si>
   <si>
     <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,7 +724,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -738,7 +745,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="C2">
+        <v>140</v>
+      </c>
+      <c r="D2">
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -788,7 +801,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
+        <v>255</v>
+      </c>
+      <c r="C8">
+        <v>260</v>
+      </c>
+      <c r="D8">
+        <v>263</v>
+      </c>
+      <c r="E8">
+        <v>258</v>
+      </c>
+      <c r="F8">
         <v>257</v>
+      </c>
+      <c r="G8">
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -807,7 +835,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>252</v>
+        <v>264</v>
+      </c>
+      <c r="C11">
+        <v>255</v>
+      </c>
+      <c r="D11">
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -825,6 +859,9 @@
       <c r="B14">
         <v>218</v>
       </c>
+      <c r="C14">
+        <v>206</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -847,6 +884,15 @@
       <c r="B17">
         <v>173</v>
       </c>
+      <c r="C17">
+        <v>153</v>
+      </c>
+      <c r="D17">
+        <v>152</v>
+      </c>
+      <c r="E17">
+        <v>175</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -908,7 +954,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26">
-        <v>219</v>
+        <v>214</v>
+      </c>
+      <c r="C26">
+        <v>220</v>
+      </c>
+      <c r="D26">
+        <v>214</v>
+      </c>
+      <c r="E26">
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -928,6 +983,12 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>226</v>
+      </c>
+      <c r="C29">
+        <v>227</v>
+      </c>
+      <c r="D29">
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1253,7 +1314,7 @@
         <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">

--- a/muscle_length_determination/ligament_and_muscle_lengths_short_ligaments.xlsx
+++ b/muscle_length_determination/ligament_and_muscle_lengths_short_ligaments.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4f506518823dc09/Tokyo Tech/Project/Dog Robot/Hoshiramu_robot/muscle_length_determination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{2315A355-BCBD-4DBC-AD63-E4BB9AFF63BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="14_{884BF39F-CBC2-42AE-9F9E-23DCB9C2B87B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5ED0F2B8-44F1-4AC6-A5C8-A3875C6FA58E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2" xr2:uid="{26156378-0049-4A8B-8CB0-3F3BBDC12CF9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1" xr2:uid="{26156378-0049-4A8B-8CB0-3F3BBDC12CF9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ligaments" sheetId="1" r:id="rId1"/>
-    <sheet name="Muscles(L)" sheetId="2" r:id="rId2"/>
-    <sheet name="Tendons(L)" sheetId="3" r:id="rId3"/>
+    <sheet name="ligament" sheetId="1" r:id="rId1"/>
+    <sheet name="total muscle length(L)" sheetId="2" r:id="rId2"/>
+    <sheet name="tendon length(L)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -516,7 +505,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -723,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC300D97-1AF3-46AE-9AA4-448FF1ABE50C}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -913,7 +902,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="C20">
+        <v>160</v>
+      </c>
+      <c r="D20">
+        <v>155</v>
+      </c>
+      <c r="E20">
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -932,7 +930,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23">
-        <v>165</v>
+        <v>160</v>
+      </c>
+      <c r="C23">
+        <v>150</v>
+      </c>
+      <c r="D23">
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1007,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB99F533-89CE-4002-A23E-0EB847934D80}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/muscle_length_determination/ligament_and_muscle_lengths_short_ligaments.xlsx
+++ b/muscle_length_determination/ligament_and_muscle_lengths_short_ligaments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4f506518823dc09/Tokyo Tech/Project/Dog Robot/Hoshiramu_robot/muscle_length_determination/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Tokyo Tech\Project\Dog Robot\Hoshiramu_robot\muscle_length_determination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="14_{884BF39F-CBC2-42AE-9F9E-23DCB9C2B87B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5ED0F2B8-44F1-4AC6-A5C8-A3875C6FA58E}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="14_{884BF39F-CBC2-42AE-9F9E-23DCB9C2B87B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{999FC252-805D-40BA-BA61-94EF39DA9B9B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1" xr2:uid="{26156378-0049-4A8B-8CB0-3F3BBDC12CF9}"/>
   </bookViews>
@@ -713,7 +713,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -762,7 +762,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="C5">
+        <v>130</v>
+      </c>
+      <c r="D5">
+        <v>133</v>
+      </c>
+      <c r="E5">
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">

--- a/muscle_length_determination/ligament_and_muscle_lengths_short_ligaments.xlsx
+++ b/muscle_length_determination/ligament_and_muscle_lengths_short_ligaments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Tokyo Tech\Project\Dog Robot\Hoshiramu_robot\muscle_length_determination\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4f506518823dc09/Tokyo Tech/Project/Dog Robot/Hoshiramu_robot/muscle_length_determination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="14_{884BF39F-CBC2-42AE-9F9E-23DCB9C2B87B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{999FC252-805D-40BA-BA61-94EF39DA9B9B}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="14_{884BF39F-CBC2-42AE-9F9E-23DCB9C2B87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB86FCE6-FAC1-E140-BE01-10A9A5E1CB7E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1" xr2:uid="{26156378-0049-4A8B-8CB0-3F3BBDC12CF9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{26156378-0049-4A8B-8CB0-3F3BBDC12CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="ligament" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="29">
   <si>
     <t>stf_L</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +149,10 @@
   </si>
   <si>
     <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D printed component = 6.5 + 12.1 = 18.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,9 +221,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -246,7 +261,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -352,7 +367,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -494,7 +509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -504,13 +519,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC8FC48-2A44-4C9B-91E0-2BDEBB0D28BE}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>23</v>
       </c>
@@ -553,7 +568,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -576,7 +591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>29</v>
       </c>
@@ -596,7 +611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -619,7 +634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>28</v>
       </c>
@@ -639,7 +654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -656,12 +671,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>27</v>
@@ -670,7 +685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -687,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13</v>
       </c>
@@ -710,15 +725,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC300D97-1AF3-46AE-9AA4-448FF1ABE50C}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -732,7 +747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>146</v>
       </c>
@@ -743,7 +758,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -760,7 +775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>135</v>
       </c>
@@ -774,7 +789,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -797,7 +812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>255</v>
       </c>
@@ -817,7 +832,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -831,7 +846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>264</v>
       </c>
@@ -842,7 +857,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -853,7 +868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>218</v>
       </c>
@@ -861,7 +876,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -878,7 +893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>173</v>
       </c>
@@ -892,7 +907,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -909,7 +924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>161</v>
       </c>
@@ -923,7 +938,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -937,7 +952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>160</v>
       </c>
@@ -948,7 +963,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -965,7 +980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>214</v>
       </c>
@@ -979,7 +994,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -993,7 +1008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>226</v>
       </c>
@@ -1004,9 +1019,14 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1024,9 +1044,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1049,7 +1069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>5</v>
       </c>
@@ -1057,7 +1077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1083,7 +1103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>5</v>
       </c>
@@ -1091,7 +1111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1132,7 +1152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1140,7 +1160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1163,7 +1183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5</v>
       </c>
@@ -1171,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1188,7 +1208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>5</v>
       </c>
@@ -1196,7 +1216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1225,7 +1245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>5</v>
       </c>
@@ -1233,7 +1253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1262,7 +1282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>5</v>
       </c>
@@ -1270,7 +1290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1293,7 +1313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>5</v>
       </c>
@@ -1301,7 +1321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1330,7 +1350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>10</v>
       </c>
@@ -1338,7 +1358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1361,7 +1381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>25</v>
       </c>
